--- a/CashFlow/FANG_cashflow.xlsx
+++ b/CashFlow/FANG_cashflow.xlsx
@@ -702,19 +702,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>136000000.0</v>
+        <v>101000000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>101000000.0</v>
+        <v>105000000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>60000000.0</v>
+        <v>64000000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>22000000.0</v>
+        <v>26000000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>-18000000.0</v>
+        <v>21000000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-16000000.0</v>
@@ -821,19 +821,19 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>-20000000.0</v>
+        <v>600000000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>-11000000.0</v>
+        <v>708000000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>-12000000.0</v>
+        <v>644000000.0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>-8000000.0</v>
+        <v>444000000.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>-158000000.0</v>
+        <v>14000000.0</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>-203000000.0</v>
